--- a/gov.xlsx
+++ b/gov.xlsx
@@ -24,8 +24,8 @@
     <t>合约名称</t>
   </si>
   <si>
-    <t>官方网站 
-category page</t>
+    <t>来自官方网站 
+category name</t>
   </si>
   <si>
     <t>官方合约代码 
@@ -1422,7 +1422,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.4" outlineLevelCol="5"/>
@@ -1434,7 +1434,7 @@
     <col min="5" max="5" width="21.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="59" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="86" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
